--- a/Comparison of Results.xlsx
+++ b/Comparison of Results.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raj\LearningThings\IITBombay\DDP\eshelby-3d\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raj\LearningThings\IITBombay\DDP\Analytical-3D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BC200E-A870-44AD-9A78-CA49DA6AC370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95F2BED-2277-437A-B392-C7A4BE3F67BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73283B73-221C-40BC-BE3D-123C4C6CF91E}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{73283B73-221C-40BC-BE3D-123C4C6CF91E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Inputs</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>% difference wrt analytical</t>
+  </si>
+  <si>
+    <t>Inside</t>
+  </si>
+  <si>
+    <t>Analytical (Jump jump code)</t>
+  </si>
+  <si>
+    <t>Outside</t>
+  </si>
+  <si>
+    <t>% difference wrt analytical (jump code)</t>
   </si>
 </sst>
 </file>
@@ -105,9 +117,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +133,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,12 +162,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,21 +484,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8E17A9-45BD-41AA-9DDC-B4BABA594A33}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.77734375" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="6" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -500,11 +519,11 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -515,7 +534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -531,12 +550,12 @@
       <c r="F4">
         <v>-0.23699899999999999</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <f>(F4/E4)-1</f>
         <v>1.6003764949048538E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -552,12 +571,12 @@
       <c r="F5">
         <v>-0.20897099999999999</v>
       </c>
-      <c r="G5" s="2">
-        <f t="shared" ref="G5:G6" si="0">(F5/E5)-1</f>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5:H6" si="0">(F5/E5)-1</f>
         <v>2.2680173530531533E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -573,12 +592,12 @@
       <c r="F6">
         <v>-0.155611</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>4.7096700788642476E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -587,7 +606,7 @@
         <v>80.769230769230759</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -595,7 +614,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -603,7 +622,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -611,7 +630,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -619,7 +638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -627,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -638,4 +657,250 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742E6C59-8FF1-4EE4-BB2E-AC9AC87F8067}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>-0.22908004513833699</v>
+      </c>
+      <c r="F4">
+        <v>-0.22955782228093699</v>
+      </c>
+      <c r="G4">
+        <v>-0.22908004000000001</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H5" si="0">(F4/G4)-1</f>
+        <v>2.0856565283338124E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>210</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>-0.229080041373763</v>
+      </c>
+      <c r="F5">
+        <v>-0.22955350861686499</v>
+      </c>
+      <c r="G5">
+        <v>-0.22908004000000001</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0668261489082962E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>-0.14183991348789901</v>
+      </c>
+      <c r="F6">
+        <v>-0.14269885088670101</v>
+      </c>
+      <c r="G6">
+        <v>-0.14183992000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <f>(F6/G6)-1</f>
+        <v>6.0556357244208048E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>B5/(2*(1+B6))</f>
+        <v>80.769230769230759</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1E-3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1E-3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.29601596218397502</v>
+      </c>
+      <c r="F9">
+        <v>-0.229376505737176</v>
+      </c>
+      <c r="G9">
+        <v>-0.22908004000000001</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" ref="H7:H11" si="1">(F9/G9)-1</f>
+        <v>1.2941578724012803E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1E-3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>0.29601977156038001</v>
+      </c>
+      <c r="F10">
+        <v>7.3559165133821006E-2</v>
+      </c>
+      <c r="G10">
+        <v>7.0919960000000004E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>3.7213855363440684E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>0.38322080151472698</v>
+      </c>
+      <c r="F11">
+        <v>0.13922982607649501</v>
+      </c>
+      <c r="G11">
+        <v>0.15816008000000001</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.11969046755353818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>